--- a/spliced/falling/2023-03-25_17-55-15/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.1694655418396</v>
+        <v>-1.70257568359375</v>
       </c>
       <c r="B2" t="n">
-        <v>4.356465816497803</v>
+        <v>5.600172996520996</v>
       </c>
       <c r="C2" t="n">
-        <v>4.929330825805664</v>
+        <v>2.819403648376465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.089807510375977</v>
+        <v>-2.645308017730713</v>
       </c>
       <c r="B3" t="n">
-        <v>4.590486526489258</v>
+        <v>5.044093132019043</v>
       </c>
       <c r="C3" t="n">
-        <v>3.296045064926147</v>
+        <v>3.529041290283203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.39794921875</v>
+        <v>-3.1694655418396</v>
       </c>
       <c r="B4" t="n">
-        <v>4.069095611572266</v>
+        <v>4.356465816497803</v>
       </c>
       <c r="C4" t="n">
-        <v>1.278849601745606</v>
+        <v>4.929330825805664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.00772476196289</v>
+        <v>-2.089807510375977</v>
       </c>
       <c r="B5" t="n">
-        <v>5.029564380645752</v>
+        <v>4.590486526489258</v>
       </c>
       <c r="C5" t="n">
-        <v>1.58430814743042</v>
+        <v>3.296045064926147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.09199142456055</v>
+        <v>0.39794921875</v>
       </c>
       <c r="B6" t="n">
-        <v>-10.01467895507812</v>
+        <v>4.069095611572266</v>
       </c>
       <c r="C6" t="n">
-        <v>-16.84671211242676</v>
+        <v>1.278849601745606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.325568199157715</v>
+        <v>-3.00772476196289</v>
       </c>
       <c r="B7" t="n">
-        <v>4.143693923950195</v>
+        <v>5.029564380645752</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.819637060165405</v>
+        <v>1.58430814743042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.224846839904785</v>
+        <v>33.09199142456055</v>
       </c>
       <c r="B8" t="n">
-        <v>1.793932437896728</v>
+        <v>-10.01467895507812</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.69331693649292</v>
+        <v>-16.84671211242676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.882630348205566</v>
+        <v>3.325568199157715</v>
       </c>
       <c r="B9" t="n">
-        <v>4.272110939025879</v>
+        <v>4.143693923950195</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.869328737258911</v>
+        <v>-3.819637060165405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.976715087890625</v>
+        <v>3.224846839904785</v>
       </c>
       <c r="B10" t="n">
-        <v>6.577001571655273</v>
+        <v>1.793932437896728</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.940046072006226</v>
+        <v>-2.69331693649292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.454836368560791</v>
+        <v>2.882630348205566</v>
       </c>
       <c r="B11" t="n">
-        <v>4.527934551239014</v>
+        <v>4.272110939025879</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.188196420669556</v>
+        <v>-1.869328737258911</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.034732341766357</v>
+        <v>2.976715087890625</v>
       </c>
       <c r="B12" t="n">
-        <v>4.516598701477051</v>
+        <v>6.577001571655273</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3588785529136657</v>
+        <v>-1.940046072006226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.095149040222168</v>
+        <v>2.454836368560791</v>
       </c>
       <c r="B13" t="n">
-        <v>5.130582809448242</v>
+        <v>4.527934551239014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5939804911613464</v>
+        <v>-2.188196420669556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.312179088592529</v>
+        <v>2.034732341766357</v>
       </c>
       <c r="B14" t="n">
-        <v>5.563103199005127</v>
+        <v>4.516598701477051</v>
       </c>
       <c r="C14" t="n">
-        <v>1.712265014648438</v>
+        <v>-0.3588785529136657</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.977899074554444</v>
+        <v>4.095149040222168</v>
       </c>
       <c r="B15" t="n">
-        <v>4.791732311248779</v>
+        <v>5.130582809448242</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6301236748695374</v>
+        <v>0.5939804911613464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.052878379821777</v>
+        <v>2.312179088592529</v>
       </c>
       <c r="B16" t="n">
-        <v>5.11078691482544</v>
+        <v>5.563103199005127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0908882766962051</v>
+        <v>1.712265014648438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.723348617553711</v>
+        <v>1.977899074554444</v>
       </c>
       <c r="B17" t="n">
-        <v>5.65248441696167</v>
+        <v>4.791732311248779</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2401915490627288</v>
+        <v>-0.6301236748695374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.41374397277832</v>
+        <v>2.052878379821777</v>
       </c>
       <c r="B18" t="n">
-        <v>6.106224536895752</v>
+        <v>5.11078691482544</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.353671789169312</v>
+        <v>0.0908882766962051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.950338363647461</v>
+        <v>1.723348617553711</v>
       </c>
       <c r="B19" t="n">
-        <v>5.651811122894287</v>
+        <v>5.65248441696167</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.6365897655487061</v>
+        <v>-0.2401915490627288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.72843074798584</v>
+        <v>1.41374397277832</v>
       </c>
       <c r="B20" t="n">
-        <v>5.596723556518555</v>
+        <v>6.106224536895752</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.66290283203125</v>
+        <v>-1.353671789169312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.581844329833984</v>
+        <v>1.950338363647461</v>
       </c>
       <c r="B21" t="n">
-        <v>5.306270599365234</v>
+        <v>5.651811122894287</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.953785240650177</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1.586828231811523</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.404983997344971</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.8601570129394531</v>
+        <v>-0.6365897655487061</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-15/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-15/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.70257568359375</v>
+        <v>-0.8363723754882812</v>
       </c>
       <c r="B2" t="n">
-        <v>5.600172996520996</v>
+        <v>5.859383583068848</v>
       </c>
       <c r="C2" t="n">
-        <v>2.819403648376465</v>
+        <v>2.452773094177246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.645308017730713</v>
+        <v>-0.9548721313476562</v>
       </c>
       <c r="B3" t="n">
-        <v>5.044093132019043</v>
+        <v>5.95263671875</v>
       </c>
       <c r="C3" t="n">
-        <v>3.529041290283203</v>
+        <v>2.935124397277832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.1694655418396</v>
+        <v>-1.523673057556152</v>
       </c>
       <c r="B4" t="n">
-        <v>4.356465816497803</v>
+        <v>5.953047752380371</v>
       </c>
       <c r="C4" t="n">
-        <v>4.929330825805664</v>
+        <v>3.276031017303467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.089807510375977</v>
+        <v>-1.70257568359375</v>
       </c>
       <c r="B5" t="n">
-        <v>4.590486526489258</v>
+        <v>5.600172996520996</v>
       </c>
       <c r="C5" t="n">
-        <v>3.296045064926147</v>
+        <v>2.819403648376465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.39794921875</v>
+        <v>-2.645308017730713</v>
       </c>
       <c r="B6" t="n">
-        <v>4.069095611572266</v>
+        <v>5.044093132019043</v>
       </c>
       <c r="C6" t="n">
-        <v>1.278849601745606</v>
+        <v>3.529041290283203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.00772476196289</v>
+        <v>-3.1694655418396</v>
       </c>
       <c r="B7" t="n">
-        <v>5.029564380645752</v>
+        <v>4.356465816497803</v>
       </c>
       <c r="C7" t="n">
-        <v>1.58430814743042</v>
+        <v>4.929330825805664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33.09199142456055</v>
+        <v>-2.089807510375977</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.01467895507812</v>
+        <v>4.590486526489258</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.84671211242676</v>
+        <v>3.296045064926147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.325568199157715</v>
+        <v>0.39794921875</v>
       </c>
       <c r="B9" t="n">
-        <v>4.143693923950195</v>
+        <v>4.069095611572266</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.819637060165405</v>
+        <v>1.278849601745606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.224846839904785</v>
+        <v>-3.00772476196289</v>
       </c>
       <c r="B10" t="n">
-        <v>1.793932437896728</v>
+        <v>5.029564380645752</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.69331693649292</v>
+        <v>1.58430814743042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.882630348205566</v>
+        <v>33.09199142456055</v>
       </c>
       <c r="B11" t="n">
-        <v>4.272110939025879</v>
+        <v>-10.01467895507812</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.869328737258911</v>
+        <v>-16.84671211242676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.976715087890625</v>
+        <v>3.325568199157715</v>
       </c>
       <c r="B12" t="n">
-        <v>6.577001571655273</v>
+        <v>4.143693923950195</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.940046072006226</v>
+        <v>-3.819637060165405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.454836368560791</v>
+        <v>3.224846839904785</v>
       </c>
       <c r="B13" t="n">
-        <v>4.527934551239014</v>
+        <v>1.793932437896728</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.188196420669556</v>
+        <v>-2.69331693649292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.034732341766357</v>
+        <v>2.882630348205566</v>
       </c>
       <c r="B14" t="n">
-        <v>4.516598701477051</v>
+        <v>4.272110939025879</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3588785529136657</v>
+        <v>-1.869328737258911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.095149040222168</v>
+        <v>2.976715087890625</v>
       </c>
       <c r="B15" t="n">
-        <v>5.130582809448242</v>
+        <v>6.577001571655273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5939804911613464</v>
+        <v>-1.940046072006226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.312179088592529</v>
+        <v>2.454836368560791</v>
       </c>
       <c r="B16" t="n">
-        <v>5.563103199005127</v>
+        <v>4.527934551239014</v>
       </c>
       <c r="C16" t="n">
-        <v>1.712265014648438</v>
+        <v>-2.188196420669556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.977899074554444</v>
+        <v>2.034732341766357</v>
       </c>
       <c r="B17" t="n">
-        <v>4.791732311248779</v>
+        <v>4.516598701477051</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6301236748695374</v>
+        <v>-0.3588785529136657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.052878379821777</v>
+        <v>4.095149040222168</v>
       </c>
       <c r="B18" t="n">
-        <v>5.11078691482544</v>
+        <v>5.130582809448242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0908882766962051</v>
+        <v>0.5939804911613464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.723348617553711</v>
+        <v>2.312179088592529</v>
       </c>
       <c r="B19" t="n">
-        <v>5.65248441696167</v>
+        <v>5.563103199005127</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2401915490627288</v>
+        <v>1.712265014648438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.41374397277832</v>
+        <v>1.977899074554444</v>
       </c>
       <c r="B20" t="n">
-        <v>6.106224536895752</v>
+        <v>4.791732311248779</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.353671789169312</v>
+        <v>-0.6301236748695374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2.052878379821777</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.11078691482544</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0908882766962051</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.723348617553711</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.65248441696167</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2401915490627288</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.41374397277832</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.106224536895752</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.353671789169312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>1.950338363647461</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>5.651811122894287</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.6365897655487061</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.72843074798584</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.596723556518555</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.66290283203125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.581844329833984</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.306270599365234</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.953785240650177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.586828231811523</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.404983997344971</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8601570129394531</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.426663398742676</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.44196891784668</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7858069539070129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.610628128051758</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.431691646575928</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8632726669311523</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.379239082336426</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.286327838897705</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7818757295608521</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.496992111206055</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.291580200195312</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7745996713638306</v>
       </c>
     </row>
   </sheetData>
